--- a/biology/Zoologie/Bumba_(genre)/Bumba_(genre).xlsx
+++ b/biology/Zoologie/Bumba_(genre)/Bumba_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bumba est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bumba est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 30/11/2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 30/11/2021) :
 Bumba cuiaba Lucas, Passanha &amp; Brescovit, 2020
 Bumba horrida (Schmidt, 1994)
 Bumba humilis (Vellard, 1924)
@@ -580,9 +596,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit sous le nom de Iracema par Fernando Pérez-Miles en 2000[3] mais ce nom était préoccupé par Iracema Triques, 1996[4], un genre de poissons. Le nom de remplacement Maraca lui a été donné par Fernando Pérez-Miles en 2006[5] mais celui-ci était préoccupé par Maraca Hebard, 1926[6], un genre de blattes. Il est finalement renommé Bumba par Pérez-Miles, Bonaldo et Miglio en 2014.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit sous le nom de Iracema par Fernando Pérez-Miles en 2000 mais ce nom était préoccupé par Iracema Triques, 1996, un genre de poissons. Le nom de remplacement Maraca lui a été donné par Fernando Pérez-Miles en 2006 mais celui-ci était préoccupé par Maraca Hebard, 1926, un genre de blattes. Il est finalement renommé Bumba par Pérez-Miles, Bonaldo et Miglio en 2014.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pérez-Miles, Bonaldo &amp; Miglio, 2014 : « Bumba, a replacement name for Maraca Pérez-Miles, 2005 and Bumba lennoni, a new tarantula species from western Amazonia (Araneae, Theraphosidae, Theraphosinae). » ZooKeys, no 448, p. 1-8.
 Pérez-Miles, 2000 : « Iracema cabocla new genus and species of a theraphosid spider from Amazonic Brazil (Araneae, Theraphosidae). » Journal of Arachnology, vol. 28, p. 141–148 (texte intégral).
